--- a/Conception/dico_messages.xlsx
+++ b/Conception/dico_messages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C4FBF1-03F3-4C3B-ADCC-935633052053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226C631-AF85-4F4B-BBCB-94C573862C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Emetteur</t>
   </si>
@@ -92,6 +92,15 @@
   <si>
     <t>Enlève les données liées à demande de convention
 (Si demande de l'étudiant, ou infirmation d'un des services )</t>
+  </si>
+  <si>
+    <t>File/Sujet ?</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +456,10 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="116" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +472,11 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -473,8 +486,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -484,8 +500,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -495,8 +514,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -506,8 +528,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -520,8 +545,11 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -531,8 +559,11 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -542,8 +573,11 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -553,8 +587,11 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -564,8 +601,11 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -575,8 +615,11 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -589,8 +632,11 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -602,6 +648,9 @@
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Conception/dico_messages.xlsx
+++ b/Conception/dico_messages.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226C631-AF85-4F4B-BBCB-94C573862C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3399385A-437C-45D9-8793-0C633049EF9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Conception/dico_messages.xlsx
+++ b/Conception/dico_messages.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3399385A-437C-45D9-8793-0C633049EF9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE88255-DF13-4023-9501-75D176DF6E36}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Messages" sheetId="1" r:id="rId1"/>
+    <sheet name="Donnes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,31 +47,16 @@
     <t>Dpt. Enseignement</t>
   </si>
   <si>
-    <t>Demande_convention = {Etudiant, Diplôme, Assurance, Entreprise, Stage}</t>
-  </si>
-  <si>
-    <t>Demande_Confirmation_Inscription = {Etudiant, Diplôme }</t>
-  </si>
-  <si>
-    <t>Demande_Validation_Pedagogique  ={Etudiant, Diplôme, Stage }</t>
-  </si>
-  <si>
     <t>Validation_Pedagogique  = {Demande_Validation_Pedagogique,   confirmation: bool, cause_refus?: string,  nom_tuteur?: string }</t>
   </si>
   <si>
     <t>Juridique</t>
   </si>
   <si>
-    <t>Validation_Juridique  = { Etudiant, Assurance, Entreprise, Stage }</t>
-  </si>
-  <si>
     <t xml:space="preserve">Confirmation_Validation_Juridique = {Validation_Juridique , confirmation: bool, cause_refus?: string } </t>
   </si>
   <si>
     <t xml:space="preserve">Confirmation_Demande_convention = {Demande_convention , confirmation: bool, cause_refus?: string } </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmation_Demande_convention = {Demande_convention, confirmation: bool} </t>
   </si>
   <si>
     <t>Remarques</t>
@@ -101,6 +87,21 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>Demande_convention = {Etudiant, Assurance, Entreprise, Stage}</t>
+  </si>
+  <si>
+    <t>Demande_Confirmation_Inscription = {Etudiant}</t>
+  </si>
+  <si>
+    <t>Demande_Validation_Pedagogique  ={Etudiant, Stage }</t>
+  </si>
+  <si>
+    <t>Validation_Juridique  = { Etudiant.nom, Etudiant.prenom, Assurance, Entreprise, Stage }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation_Demande_convention = {Etudiant, Stage, confirmation: bool} </t>
   </si>
 </sst>
 </file>
@@ -179,6 +180,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="https://scontent-cdg2-1.xx.fbcdn.net/v/t1.15752-9/43319848_1819759301425861_5495876869637013504_n.jpg?_nc_cat=108&amp;oh=4812e89b06d0fe6d09db72313a4bc4e6&amp;oe=5C4B20CC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BBB6D0-0043-46B2-A48D-867042383927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12011025" cy="4242955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,7 +514,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,10 +551,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -498,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -515,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,10 +593,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,10 +610,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -557,10 +624,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -568,27 +635,27 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -599,10 +666,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,10 +680,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,13 +694,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -641,20 +708,33 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0FCED8-E72A-4DF4-810F-0A71931A2865}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>